--- a/df_list_20250227.xlsx
+++ b/df_list_20250227.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="501">
   <si>
     <t>SITE_NO</t>
   </si>
@@ -1012,16 +1012,524 @@
   </si>
   <si>
     <t>유림 서주이주 하수처리시설 신·이설사업 하수처리공법선정 기술제안서 제출안..</t>
+  </si>
+  <si>
+    <t>A158</t>
+  </si>
+  <si>
+    <t>경상도_경산시</t>
+  </si>
+  <si>
+    <t>https://www.gbgs.go.kr/open_content/ko/page.do?mnu_uid=2160&amp;pageSize=90</t>
+  </si>
+  <si>
+    <t>장군산 등산로 보도육교 설치공사 공법선정위원회 평가결과 공개</t>
+  </si>
+  <si>
+    <t>교량(인도교) 특정공법 선정 기술제안서 제출안내 공고 [조산천 인도교 설치공사]</t>
+  </si>
+  <si>
+    <t>A177</t>
+  </si>
+  <si>
+    <t>경상도_청도군</t>
+  </si>
+  <si>
+    <t>https://www.cheongdo.go.kr/portal/saeol/gosi/list.do?mid=0301020000&amp;token=1703813401840</t>
+  </si>
+  <si>
+    <t>청도군 지방세심의위원회 위원 모집 공고</t>
+  </si>
+  <si>
+    <t>A019</t>
+  </si>
+  <si>
+    <t>대구광역시고시공고</t>
+  </si>
+  <si>
+    <t>https://www.daegu.go.kr/index.do?menu_id=00940170</t>
+  </si>
+  <si>
+    <t>「제3차 대구광역시 청년정책 기본계획 수립」용역 제안서 평가결과 공고</t>
+  </si>
+  <si>
+    <t>https://www.ulsan.go.kr/u/rep/transfer/notice/list.ulsan?mId=001004002000000000&amp;curPage=2</t>
+  </si>
+  <si>
+    <t>A025</t>
+  </si>
+  <si>
+    <t>경기고시공고</t>
+  </si>
+  <si>
+    <t>https://www.gg.go.kr/bbs/board.do?bsIdx=469&amp;menuId=1547#page=2</t>
+  </si>
+  <si>
+    <t>2025년 2월 경기도 건축물 미술작품심의위원회 심의결과 공고(제4회)</t>
+  </si>
+  <si>
+    <t>https://www.gg.go.kr/bbs/board.do?bsIdx=469&amp;menuId=1547#page=3</t>
+  </si>
+  <si>
+    <t>제3차 경기도 경관계획 수립 용역 제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>2025년 사회혁신형 스마트팜 구축 제안사업자 모집 공고새 글</t>
+  </si>
+  <si>
+    <t>제28회 광주왕실도자페스티벌 행사대행 용역 제안서 기술능력 정성평가 결과 공개새 글</t>
+  </si>
+  <si>
+    <t>포동 버스공영차고지 옹벽 설치공사' 공법선정위원회 평가위원 명단 및 결과 공고</t>
+  </si>
+  <si>
+    <t>A065</t>
+  </si>
+  <si>
+    <t>경기도_의정부시</t>
+  </si>
+  <si>
+    <t>https://www.ui4u.go.kr/portal/saeol/gosiList.do?seCode=01&amp;mId=0301040000</t>
+  </si>
+  <si>
+    <t>경기도・의정부시 똑버스 운송사업 제안서 평가위원(후보자) 모집공고새글</t>
+  </si>
+  <si>
+    <t>https://www.gp.go.kr/portal/selectGosiList.do?key=2148&amp;not_ancmt_se_code=01&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>https://www.yp21.go.kr/www/selectBbsNttList.do?bbsNo=5&amp;key=1119&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>「2025년 양근리도시재생 행사대행용역」의 제안서 평가를 위하여 평가위원 모집을 공고합니다.새글</t>
+  </si>
+  <si>
+    <t>「오염총량관리 시행계획(2024년) 이행평가 연구용역」 제안서 평가위원(후보자) 모집 공고새글</t>
+  </si>
+  <si>
+    <t>https://www.chuncheon.go.kr/cityhall/administrative-info/notice-info/notice-announcement/?pageIndex=1</t>
+  </si>
+  <si>
+    <t>A098</t>
+  </si>
+  <si>
+    <t>충청도_청주시_상당구</t>
+  </si>
+  <si>
+    <t>https://eminwon.cheongju.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04&amp;yyyy=2020</t>
+  </si>
+  <si>
+    <t>A128</t>
+  </si>
+  <si>
+    <t>전라도_고창군</t>
+  </si>
+  <si>
+    <t>https://www.gochang.go.kr/index.gochang?menuCd=DOM_000000102003007000&amp;startPage2=1</t>
+  </si>
+  <si>
+    <t>[40364]고창 동학농민혁명 성지화 사업 기본 및 실시설계 공모 제안서 제출 안내첨부파일 있음</t>
+  </si>
+  <si>
+    <t>[40358]2025년 실용금융교육 시범도시 운영을 위한 전문기관 위탁 용역 제안서 평가위자(후보자) 모집 공고첨부파일 있음</t>
+  </si>
+  <si>
+    <t>https://www.gochang.go.kr/index.gochang?menuCd=DOM_000000102003007000&amp;startPage2=2</t>
+  </si>
+  <si>
+    <t>https://www.gochang.go.kr/index.gochang?menuCd=DOM_000000102003007000&amp;startPage2=3</t>
+  </si>
+  <si>
+    <t>https://www.gochang.go.kr/index.gochang?menuCd=DOM_000000102003007000&amp;startPage2=4</t>
+  </si>
+  <si>
+    <t>https://www.gochang.go.kr/index.gochang?menuCd=DOM_000000102003007000&amp;startPage2=5</t>
+  </si>
+  <si>
+    <t>https://www.gochang.go.kr/index.gochang?menuCd=DOM_000000102003007000&amp;startPage2=6</t>
+  </si>
+  <si>
+    <t>https://www.gochang.go.kr/index.gochang?menuCd=DOM_000000102003007000&amp;startPage2=7</t>
+  </si>
+  <si>
+    <t>https://www.gochang.go.kr/index.gochang?menuCd=DOM_000000102003007000&amp;startPage2=8</t>
+  </si>
+  <si>
+    <t>https://www.gochang.go.kr/index.gochang?menuCd=DOM_000000102003007000&amp;startPage2=9</t>
+  </si>
+  <si>
+    <t>https://www.gyeongju.go.kr/open_content/ko/page.do?mnu_uid=423&amp;pageNo=1</t>
+  </si>
+  <si>
+    <t>A043</t>
+  </si>
+  <si>
+    <t>경기도_광명시</t>
+  </si>
+  <si>
+    <t>https://www.gm.go.kr/pt/user/nftcBbs/BD_selectNftcBbsList.do?q_nftcBbsCode=1001&amp;q_rowPerPage=90</t>
+  </si>
+  <si>
+    <t>제안서 평가위원(후보자) 모집 공고(2025년 광대역 자가통신망 노후 광전송장비 교체)</t>
+  </si>
+  <si>
+    <t>A064</t>
+  </si>
+  <si>
+    <t>경기도_의왕시</t>
+  </si>
+  <si>
+    <t>https://eminwon.uiwang.go.kr/emwp/jsp/ofr/OfrNotAncmtL.jsp?not_ancmt_se_code=01,04,06&amp;homepage_pbs_yn=Y&amp;subCheck=Y&amp;ofr_pageSize=10&amp;jndinm=OfrNotAncmtEJB&amp;context=NTIS&amp;list_gubun=A&amp;epcCheck=''</t>
+  </si>
+  <si>
+    <t>「2025년 청소년 스마트 건강관리사업 용역」제안서 평가위원(후보자) 공...</t>
+  </si>
+  <si>
+    <t>옥화자연휴양림 산림교육(숲해설, 유아숲) 위탁운영 제안서 평가결과 공고</t>
+  </si>
+  <si>
+    <t>2025년 청주시 소상공인 라이브커머스 운영 대행 용역 제안서 평가위원 ...</t>
+  </si>
+  <si>
+    <t>흥덕(대)교 경관조명 및 경관시설 디자인 개발 및 실시설계 용역 제안서 ...</t>
+  </si>
+  <si>
+    <t>A126</t>
+  </si>
+  <si>
+    <t>전라도_전주시</t>
+  </si>
+  <si>
+    <t>https://eminwon.jeonju.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04&amp;epcCheck=Y&amp;recent_mm=60&amp;list_gubun=A</t>
+  </si>
+  <si>
+    <t>전주시정신건강심의위원회 위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>『2025 전주·완주 시티투어 운영 용역』제안서 평가위원(후보자) 모집 ...</t>
+  </si>
+  <si>
+    <t>교량(합성형라멘교) 특정공법 선정 기술제안서 제출안내 공고[장재소하천(용성 매남) 정비공사 실시설계용역]</t>
+  </si>
+  <si>
+    <t>제안서 평가위원(후보자)모집 공고(청화로 중심시가지 간판개선사업)</t>
+  </si>
+  <si>
+    <t>A009</t>
+  </si>
+  <si>
+    <t>충남도로관리사업소</t>
+  </si>
+  <si>
+    <t>2025년 충청남도 도정 여론조사 및 여론분석 컨설팅 용역 사업 제안서 평가위원 모집 공고</t>
+  </si>
+  <si>
+    <t>「충남미술관 브랜드(MI) 개발 용역」제안서 평가위원(후보자) 공개모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.chungnam.go.kr/cnportal/province/province/list.do?menuNo=500487&amp;pageIndex=3</t>
+  </si>
+  <si>
+    <t>「2025년 전북특별자치도 사회조사 분석용역」제안서 평가위원 모집 공고</t>
+  </si>
+  <si>
+    <t>A015</t>
+  </si>
+  <si>
+    <t>강원도로관리사업소</t>
+  </si>
+  <si>
+    <t>https://state.gwd.go.kr/portal/bulletin/notification</t>
+  </si>
+  <si>
+    <t>「강원특별자치도 석탄 경석 실태조사 및 기본계획 수립 연구용역」제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>남산소배수지(1지) 외 1개소 내부방식공사 공법선정 결과 공고</t>
+  </si>
+  <si>
+    <t>제안서 평가결과 공개(부산광역시 낙동강수계 수질오염총량관리 시행계획 이행평가 용역)</t>
+  </si>
+  <si>
+    <t>https://www.busan.go.kr/nbgosi?curPage=2</t>
+  </si>
+  <si>
+    <t>2025년 두류공원 유아숲교육 운영사업 제안서 평가 결과 공개</t>
+  </si>
+  <si>
+    <t>https://www.ulsan.go.kr/u/rep/transfer/notice/list.ulsan?mId=001004002000000000&amp;curPage=1</t>
+  </si>
+  <si>
+    <t>다수공급자계약 2단계경쟁 제안공고-2025년 원격검침단말기 확대 구축</t>
+  </si>
+  <si>
+    <t>https://www.ulsan.go.kr/u/rep/transfer/notice/list.ulsan?mId=001004002000000000&amp;curPage=5</t>
+  </si>
+  <si>
+    <t>미래산단 기반시설(옹벽) 보수・보강공사' 신기술・특허공법 선정 정량평가 결과 공고</t>
+  </si>
+  <si>
+    <t>2025 경기도 인권아카데미 운영 용역 제안서평가 예비위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>A026</t>
+  </si>
+  <si>
+    <t>강원고시공고</t>
+  </si>
+  <si>
+    <t>https://www.gb.go.kr/Main/page.do?mnu_uid=6789&amp;LARGE_CODE=720&amp;MEDIUM_CODE=50&amp;SMALL_CODE=10&amp;SMALL_CODE2=30&amp;Start=10</t>
+  </si>
+  <si>
+    <t>제안서평가위원회 평가위원(후보자) 모집 공고(공릉천 저탄소 수변공원화사업...</t>
+  </si>
+  <si>
+    <t>https://www.nyj.go.kr/www/selectEminwonWebList.do?key=2492&amp;cpn=6</t>
+  </si>
+  <si>
+    <t>2026년도 주민참여예산 편성을 위한 주민참여예산 제안사업 공모 접수 공...</t>
+  </si>
+  <si>
+    <t>「2025년 시흥시 상수도관 세척용역(맥동류세척)」 제안서 평가위원(후보자) 공개모집 공고</t>
+  </si>
+  <si>
+    <t>(가칭)평택시 통합30주년 시민 대화합 축제 감독단 선정  제안서 평가위원(후보자) 모집 안내</t>
+  </si>
+  <si>
+    <t>https://www.hanam.go.kr/www/selectGosiList.do?key=171&amp;not_ancmt_se_code=01,04&amp;pageIndex=3</t>
+  </si>
+  <si>
+    <t>「화성시 역사박물관 제19회 기획전시」 제안서 평가위원(후보자) 모집공고</t>
+  </si>
+  <si>
+    <t>2025년 제1회 양평군 보육정책위원회 심의결과 공고새글</t>
+  </si>
+  <si>
+    <t>[2025년 양평군 산림교육(숲해설, 유아숲교육) 및 산림치유 위탁운영]제안서 평가위원회 평가결과 공고</t>
+  </si>
+  <si>
+    <t>https://www.yp21.go.kr/www/selectBbsNttList.do?bbsNo=5&amp;key=1119&amp;pageIndex=3</t>
+  </si>
+  <si>
+    <t>A076</t>
+  </si>
+  <si>
+    <t>강원도_동해시</t>
+  </si>
+  <si>
+    <t>https://www.dh.go.kr/www/selectBbsNttList.do?bbsNo=87&amp;key=478&amp;recordCountPerPage=90</t>
+  </si>
+  <si>
+    <t>동해시 보육정책위원회 심의 결과 공고</t>
+  </si>
+  <si>
+    <t>2025 강원춘천세계태권도문화축제・춘천코리아오픈국제태권도대회 공식여행사 선정 및 수송・숙박업무 대행용역' 제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>A085</t>
+  </si>
+  <si>
+    <t>강원도_영월군</t>
+  </si>
+  <si>
+    <t>https://www.yw.go.kr/www/selectBbsNttList.do?bbsNo=17&amp;key=273&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>『제33회 강원특별자치도민생활체육대회 공개행사 대행용역』 제안서 평가위원(후보자) 모집 공고새글</t>
+  </si>
+  <si>
+    <t>A089</t>
+  </si>
+  <si>
+    <t>강원도_평창군</t>
+  </si>
+  <si>
+    <t>https://www.pc.go.kr/portal/government/government-notification</t>
+  </si>
+  <si>
+    <t>「계촌천(계촌클래식공원) 인도교 설치사업」신기술·특허공법(강관거더) 제안서 평가 결과 공고</t>
+  </si>
+  <si>
+    <t>2025년 청주시 소상공인 라이브커머스 운영 대행 용역 제안서 평가위원 모집공고</t>
+  </si>
+  <si>
+    <t>https://www.cheongju.go.kr/www/selectEminwonNoticeList.do?key=23366&amp;notAncmtSeCd=&amp;searchCnd=all&amp;searchKrwd=&amp;pageIndex=5</t>
+  </si>
+  <si>
+    <t>흥덕(대)교 경관조명 및 경관시설 디자인 개발 및 실시설계 용역 제안서 기술능력(정성적) 평가결과 공개</t>
+  </si>
+  <si>
+    <t>https://www.cheongju.go.kr/www/selectEminwonNoticeList.do?key=23366&amp;notAncmtSeCd=&amp;searchCnd=all&amp;searchKrwd=&amp;pageIndex=6</t>
+  </si>
+  <si>
+    <t>A095</t>
+  </si>
+  <si>
+    <t>충청도_충주시</t>
+  </si>
+  <si>
+    <t>https://www.chungju.go.kr/www/selectEminwonList.do?key=510&amp;ofr_pageSize=90&amp;ancmt_se_code=01,02,04&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>충주시 건축위원회 심의지역 지정에 따른 행정예고(수정)</t>
+  </si>
+  <si>
+    <t>A102</t>
+  </si>
+  <si>
+    <t>충청도_영동군</t>
+  </si>
+  <si>
+    <t>https://www.yd21.go.kr/kr/html/sub02/020103.html</t>
+  </si>
+  <si>
+    <t>「2025영동세계국악엑스포」 먹거리 콘텐츠 개발 및 운영 용역업체 선정  제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>월류봉 출렁다리 설치사업 신기술·특허공법 제안서 평가점수 결과 공개</t>
+  </si>
+  <si>
+    <t>https://www.oc.go.kr/www/selectBbsNttList.do?bbsNo=40&amp;key=236&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>A110</t>
+  </si>
+  <si>
+    <t>충청도_당진시</t>
+  </si>
+  <si>
+    <t>https://eminwon.dangjin.go.kr/emwp/jsp/ofr/OfrNotAncmtL.jsp?not_ancmt_se_code=01,02,03,04,05,06&amp;list_gubun=A</t>
+  </si>
+  <si>
+    <t>블랙타이거새우 대형화 및 양식기술 연구용역 제안서 평가위원 후보자 모집 ...</t>
+  </si>
+  <si>
+    <t>제5회 천안시 건축위원회[건축물해체전문위원회] 건축물해체심의 주요결과 공...</t>
+  </si>
+  <si>
+    <t>2025년 함열지역 도시재생 뉴딜사업 모니터링 및 기록화 용역 제안서 평...</t>
+  </si>
+  <si>
+    <t>A138</t>
+  </si>
+  <si>
+    <t>전라도_목포시</t>
+  </si>
+  <si>
+    <t>https://www.mokpo.go.kr/www/mokpo_news/notification/public_notice?page=1</t>
+  </si>
+  <si>
+    <t>2025년 제1차 목포시보육정책위원회 심의 결과 공고새로운글</t>
+  </si>
+  <si>
+    <t>A139</t>
+  </si>
+  <si>
+    <t>전라도_순천시</t>
+  </si>
+  <si>
+    <t>http://www.suncheon.go.kr/kr/news/0004/0005/0001/?x=1&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>2025년「순천 관광 SNS콘텐츠 제작·운영 대행 용역」제안서 평가결과 ...</t>
+  </si>
+  <si>
+    <t>「2025년 Beyond K Festa in 여수 행사 대행 용역」제안서...새로운글</t>
+  </si>
+  <si>
+    <t>『섬박람회장 주 진입로변 경관개선 사업』 제안요청서 관련 질의답변서 공고새로운글</t>
+  </si>
+  <si>
+    <t>https://www.yeosu.go.kr/www/govt/news/notify?page=2</t>
+  </si>
+  <si>
+    <t>A147</t>
+  </si>
+  <si>
+    <t>전라도_보성군</t>
+  </si>
+  <si>
+    <t>https://www.boseong.go.kr/www/open_administration/city_news/notification?page=1</t>
+  </si>
+  <si>
+    <t>2025년 제103회 보성군 어린이날 행사 수행기관(단체)선정·심의 결과...새로운글</t>
+  </si>
+  <si>
+    <t>A148</t>
+  </si>
+  <si>
+    <t>전라도_신안군</t>
+  </si>
+  <si>
+    <t>https://www.shinan.go.kr/home/www/openinfo/participation_07/participation_07_04/page.wscms?page=1</t>
+  </si>
+  <si>
+    <t>「신안군 2030 종합발전계획 수립 용역」 제안서 평가위원...</t>
+  </si>
+  <si>
+    <t>A152</t>
+  </si>
+  <si>
+    <t>전라도_장성군</t>
+  </si>
+  <si>
+    <t>https://www.jangseong.go.kr/home/www/news/jangseong/announcement?page=2</t>
+  </si>
+  <si>
+    <t>장성군 제2기 지역먹거리 종합계획 수립 연구용역 제안서 재...</t>
+  </si>
+  <si>
+    <t>A160</t>
+  </si>
+  <si>
+    <t>경상도_구미시</t>
+  </si>
+  <si>
+    <t>https://www.gumi.go.kr/portal/saeol/gosi/list.do?seCode=01&amp;mid=0401040000</t>
+  </si>
+  <si>
+    <t>구미시 도시생활권 발전방안 수립 연구용역 제안서 평가위원회 공개모집 공고</t>
+  </si>
+  <si>
+    <t>상주시 관광종합개발계획 수립 용역' 제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>구학공원 트리탑 스카이워크 조성공사 공법 선정 평가위원(후보자)모집 공고</t>
+  </si>
+  <si>
+    <t>2025 영해면 도시재생 현장지원센터 운영 및 주민역량강화 용역 제안서 평가위원(후보자)등록 모집 공고</t>
+  </si>
+  <si>
+    <t>A188</t>
+  </si>
+  <si>
+    <t>경상도_밀양시</t>
+  </si>
+  <si>
+    <t>https://www.miryang.go.kr/web/eMinwonList.do?mnNo=20903000000&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>2025년 축산분야 지원사업 심의결과 공고</t>
+  </si>
+  <si>
+    <t>https://www.jinju.go.kr/00130/02730/05586.web?&amp;cpage=2</t>
+  </si>
+  <si>
+    <t>https://www.haman.go.kr/00960/00962.web?&amp;cpage=3</t>
+  </si>
+  <si>
+    <t>제6차 국도건설사업(함양군)사전타당성 분석용역 제안서 평가위원(후보자)공..</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1043,6 +1551,10 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1073,7 +1585,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1083,6 +1595,18 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -3787,226 +4311,4406 @@
         <v>45715.546956018516</v>
       </c>
     </row>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="A125" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E125" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F125" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="A126" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E126" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F126" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="A127" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E127" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F127" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="A128" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E128" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F128" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="A129" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E129" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F129" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="A130" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E130" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F130" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="A131" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E131" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F131" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="A132" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E132" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F132" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="A133" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E133" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F133" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="A134" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E134" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F134" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="A135" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E135" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F135" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="A136" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="E136" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F136" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="A137" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E137" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F137" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="A138" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="E138" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F138" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="A139" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="E139" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F139" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="A140" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E140" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F140" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="A141" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E141" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F141" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="A142" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E142" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F142" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="A143" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E143" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F143" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="A144" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E144" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F144" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="145" ht="15.75" customHeight="1">
+      <c r="A145" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E145" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F145" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="146" ht="15.75" customHeight="1">
+      <c r="A146" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E146" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F146" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="147" ht="15.75" customHeight="1">
+      <c r="A147" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E147" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F147" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="A148" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E148" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F148" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="A149" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E149" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F149" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="A150" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E150" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F150" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="A151" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E151" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F151" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
+      <c r="A152" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E152" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F152" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="A153" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E153" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F153" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="A154" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E154" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F154" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="155" ht="15.75" customHeight="1">
+      <c r="A155" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E155" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F155" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="A156" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E156" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F156" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="A157" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E157" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F157" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="A158" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="E158" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F158" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="A159" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E159" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F159" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="160" ht="15.75" customHeight="1">
+      <c r="A160" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="E160" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F160" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="A161" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="E161" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F161" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="A162" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E162" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F162" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="A163" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E163" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F163" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="A164" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E164" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F164" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="A165" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E165" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F165" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="A166" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E166" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F166" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="167" ht="15.75" customHeight="1">
+      <c r="A167" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E167" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F167" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="168" ht="15.75" customHeight="1">
+      <c r="A168" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="E168" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F168" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="A169" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="E169" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F169" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="A170" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E170" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F170" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="A171" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E171" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F171" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="A172" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E172" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F172" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
+      <c r="A173" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E173" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F173" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="A174" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E174" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F174" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="175" ht="15.75" customHeight="1">
+      <c r="A175" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E175" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F175" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="176" ht="15.75" customHeight="1">
+      <c r="A176" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E176" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F176" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="A177" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E177" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F177" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="178" ht="15.75" customHeight="1">
+      <c r="A178" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E178" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F178" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="179" ht="15.75" customHeight="1">
+      <c r="A179" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E179" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F179" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="180" ht="15.75" customHeight="1">
+      <c r="A180" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E180" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F180" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="181" ht="15.75" customHeight="1">
+      <c r="A181" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E181" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F181" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="182" ht="15.75" customHeight="1">
+      <c r="A182" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E182" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F182" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="183" ht="15.75" customHeight="1">
+      <c r="A183" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="E183" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F183" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="184" ht="15.75" customHeight="1">
+      <c r="A184" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E184" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F184" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="185" ht="15.75" customHeight="1">
+      <c r="A185" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="E185" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F185" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="186" ht="15.75" customHeight="1">
+      <c r="A186" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E186" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F186" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="187" ht="15.75" customHeight="1">
+      <c r="A187" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="E187" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F187" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="188" ht="15.75" customHeight="1">
+      <c r="A188" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E188" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F188" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="189" ht="15.75" customHeight="1">
+      <c r="A189" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="E189" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F189" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="190" ht="15.75" customHeight="1">
+      <c r="A190" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E190" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F190" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="191" ht="15.75" customHeight="1">
+      <c r="A191" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="E191" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F191" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="192" ht="15.75" customHeight="1">
+      <c r="A192" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E192" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F192" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="193" ht="15.75" customHeight="1">
+      <c r="A193" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="E193" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F193" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="194" ht="15.75" customHeight="1">
+      <c r="A194" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E194" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F194" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="195" ht="15.75" customHeight="1">
+      <c r="A195" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="E195" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F195" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="196" ht="15.75" customHeight="1">
+      <c r="A196" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E196" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F196" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="197" ht="15.75" customHeight="1">
+      <c r="A197" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="E197" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F197" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="198" ht="15.75" customHeight="1">
+      <c r="A198" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E198" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F198" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="199" ht="15.75" customHeight="1">
+      <c r="A199" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="E199" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F199" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="200" ht="15.75" customHeight="1">
+      <c r="A200" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E200" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F200" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="201" ht="15.75" customHeight="1">
+      <c r="A201" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E201" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F201" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="202" ht="15.75" customHeight="1">
+      <c r="A202" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E202" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F202" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="203" ht="15.75" customHeight="1">
+      <c r="A203" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E203" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F203" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="204" ht="15.75" customHeight="1">
+      <c r="A204" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E204" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F204" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="205" ht="15.75" customHeight="1">
+      <c r="A205" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E205" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F205" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="206" ht="15.75" customHeight="1">
+      <c r="A206" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E206" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F206" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="207" ht="15.75" customHeight="1">
+      <c r="A207" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E207" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F207" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
+      <c r="A208" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E208" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F208" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="209" ht="15.75" customHeight="1">
+      <c r="A209" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E209" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F209" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="210" ht="15.75" customHeight="1">
+      <c r="A210" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="E210" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F210" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="211" ht="15.75" customHeight="1">
+      <c r="A211" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D211" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E211" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F211" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="212" ht="15.75" customHeight="1">
+      <c r="A212" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D212" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E212" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F212" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="213" ht="15.75" customHeight="1">
+      <c r="A213" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D213" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="E213" s="7">
+        <v>45716.0</v>
+      </c>
+      <c r="F213" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="214" ht="15.75" customHeight="1">
+      <c r="A214" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="E214" s="7">
+        <v>45716.0</v>
+      </c>
+      <c r="F214" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="215" ht="15.75" customHeight="1">
+      <c r="A215" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D215" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E215" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F215" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="216" ht="15.75" customHeight="1">
+      <c r="A216" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="E216" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F216" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="217" ht="15.75" customHeight="1">
+      <c r="A217" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="E217" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F217" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="218" ht="15.75" customHeight="1">
+      <c r="A218" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E218" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F218" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="219" ht="15.75" customHeight="1">
+      <c r="A219" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D219" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E219" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F219" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="220" ht="15.75" customHeight="1">
+      <c r="A220" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="D220" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="E220" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F220" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="A221" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="D221" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="E221" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F221" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="222" ht="15.75" customHeight="1">
+      <c r="A222" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="E222" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F222" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
+      <c r="A223" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D223" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E223" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F223" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="224" ht="15.75" customHeight="1">
+      <c r="A224" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D224" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E224" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F224" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="225" ht="15.75" customHeight="1">
+      <c r="A225" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D225" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="E225" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F225" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="226" ht="15.75" customHeight="1">
+      <c r="A226" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D226" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E226" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F226" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="227" ht="15.75" customHeight="1">
+      <c r="A227" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D227" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="E227" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F227" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="228" ht="15.75" customHeight="1">
+      <c r="A228" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D228" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="E228" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F228" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="229" ht="15.75" customHeight="1">
+      <c r="A229" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D229" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E229" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F229" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="230" ht="15.75" customHeight="1">
+      <c r="A230" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="D230" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E230" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F230" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="231" ht="15.75" customHeight="1">
+      <c r="A231" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D231" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="E231" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F231" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="232" ht="15.75" customHeight="1">
+      <c r="A232" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D232" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E232" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F232" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="233" ht="15.75" customHeight="1">
+      <c r="A233" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D233" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E233" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F233" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="234" ht="15.75" customHeight="1">
+      <c r="A234" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C234" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="D234" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="E234" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F234" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="235" ht="15.75" customHeight="1">
+      <c r="A235" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D235" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="E235" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F235" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="236" ht="15.75" customHeight="1">
+      <c r="A236" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D236" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E236" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F236" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="237" ht="15.75" customHeight="1">
+      <c r="A237" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D237" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E237" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F237" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="238" ht="15.75" customHeight="1">
+      <c r="A238" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D238" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E238" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F238" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="239" ht="15.75" customHeight="1">
+      <c r="A239" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D239" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E239" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F239" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="240" ht="15.75" customHeight="1">
+      <c r="A240" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D240" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E240" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F240" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="241" ht="15.75" customHeight="1">
+      <c r="A241" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D241" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E241" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F241" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="242" ht="15.75" customHeight="1">
+      <c r="A242" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D242" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="E242" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F242" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="243" ht="15.75" customHeight="1">
+      <c r="A243" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D243" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E243" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F243" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="244" ht="15.75" customHeight="1">
+      <c r="A244" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D244" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E244" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F244" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="245" ht="15.75" customHeight="1">
+      <c r="A245" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D245" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="E245" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F245" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="246" ht="15.75" customHeight="1">
+      <c r="A246" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D246" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="E246" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F246" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="247" ht="15.75" customHeight="1">
+      <c r="A247" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D247" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E247" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F247" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="248" ht="15.75" customHeight="1">
+      <c r="A248" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="D248" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="E248" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F248" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="249" ht="15.75" customHeight="1">
+      <c r="A249" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="D249" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E249" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F249" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="250" ht="15.75" customHeight="1">
+      <c r="A250" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D250" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="E250" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F250" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="251" ht="15.75" customHeight="1">
+      <c r="A251" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D251" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="E251" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F251" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="252" ht="15.75" customHeight="1">
+      <c r="A252" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="D252" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="E252" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F252" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="253" ht="15.75" customHeight="1">
+      <c r="A253" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C253" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D253" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="E253" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F253" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="254" ht="15.75" customHeight="1">
+      <c r="A254" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C254" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D254" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="E254" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F254" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="255" ht="15.75" customHeight="1">
+      <c r="A255" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C255" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D255" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E255" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F255" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="256" ht="15.75" customHeight="1">
+      <c r="A256" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C256" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="D256" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E256" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F256" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="257" ht="15.75" customHeight="1">
+      <c r="A257" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C257" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="D257" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E257" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F257" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="258" ht="15.75" customHeight="1">
+      <c r="A258" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C258" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D258" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="E258" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F258" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="259" ht="15.75" customHeight="1">
+      <c r="A259" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C259" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D259" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E259" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F259" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="260" ht="15.75" customHeight="1">
+      <c r="A260" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C260" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D260" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E260" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F260" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="261" ht="15.75" customHeight="1">
+      <c r="A261" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C261" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D261" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E261" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F261" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="262" ht="15.75" customHeight="1">
+      <c r="A262" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C262" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D262" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E262" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F262" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="263" ht="15.75" customHeight="1">
+      <c r="A263" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C263" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D263" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E263" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F263" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="264" ht="15.75" customHeight="1">
+      <c r="A264" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C264" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="D264" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E264" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F264" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="265" ht="15.75" customHeight="1">
+      <c r="A265" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C265" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="D265" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E265" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F265" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="266" ht="15.75" customHeight="1">
+      <c r="A266" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C266" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D266" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E266" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F266" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="267" ht="15.75" customHeight="1">
+      <c r="A267" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C267" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D267" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E267" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F267" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="268" ht="15.75" customHeight="1">
+      <c r="A268" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C268" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D268" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E268" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F268" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="269" ht="15.75" customHeight="1">
+      <c r="A269" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C269" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D269" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="E269" s="7">
+        <v>45716.0</v>
+      </c>
+      <c r="F269" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="270" ht="15.75" customHeight="1">
+      <c r="A270" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C270" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D270" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E270" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F270" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="271" ht="15.75" customHeight="1">
+      <c r="A271" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C271" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D271" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E271" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F271" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="272" ht="15.75" customHeight="1">
+      <c r="A272" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C272" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="D272" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E272" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F272" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="273" ht="15.75" customHeight="1">
+      <c r="A273" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C273" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D273" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="E273" s="7">
+        <v>45716.0</v>
+      </c>
+      <c r="F273" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="274" ht="15.75" customHeight="1">
+      <c r="A274" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C274" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D274" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E274" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F274" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="275" ht="15.75" customHeight="1">
+      <c r="A275" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D275" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="E275" s="7">
+        <v>45716.0</v>
+      </c>
+      <c r="F275" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="276" ht="15.75" customHeight="1">
+      <c r="A276" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C276" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D276" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E276" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F276" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="277" ht="15.75" customHeight="1">
+      <c r="A277" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C277" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D277" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E277" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F277" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="278" ht="15.75" customHeight="1">
+      <c r="A278" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C278" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D278" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="E278" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F278" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="279" ht="15.75" customHeight="1">
+      <c r="A279" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C279" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D279" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E279" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F279" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="280" ht="15.75" customHeight="1">
+      <c r="A280" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C280" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D280" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E280" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F280" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="281" ht="15.75" customHeight="1">
+      <c r="A281" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B281" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C281" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="D281" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E281" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F281" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="282" ht="15.75" customHeight="1">
+      <c r="A282" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C282" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D282" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="E282" s="7">
+        <v>45716.0</v>
+      </c>
+      <c r="F282" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="283" ht="15.75" customHeight="1">
+      <c r="A283" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C283" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D283" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E283" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F283" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="284" ht="15.75" customHeight="1">
+      <c r="A284" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C284" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D284" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E284" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F284" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="285" ht="15.75" customHeight="1">
+      <c r="A285" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B285" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C285" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D285" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E285" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F285" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="286" ht="15.75" customHeight="1">
+      <c r="A286" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C286" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D286" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="E286" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F286" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="287" ht="15.75" customHeight="1">
+      <c r="A287" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B287" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C287" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D287" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="E287" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F287" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="288" ht="15.75" customHeight="1">
+      <c r="A288" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C288" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="D288" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E288" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F288" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="289" ht="15.75" customHeight="1">
+      <c r="A289" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B289" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C289" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="D289" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E289" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F289" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="290" ht="15.75" customHeight="1">
+      <c r="A290" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C290" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="D290" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="E290" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F290" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="291" ht="15.75" customHeight="1">
+      <c r="A291" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B291" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C291" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D291" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="E291" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F291" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="292" ht="15.75" customHeight="1">
+      <c r="A292" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B292" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C292" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D292" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E292" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F292" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="293" ht="15.75" customHeight="1">
+      <c r="A293" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B293" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C293" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="D293" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="E293" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F293" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="294" ht="15.75" customHeight="1">
+      <c r="A294" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C294" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D294" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E294" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F294" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="295" ht="15.75" customHeight="1">
+      <c r="A295" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B295" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C295" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="D295" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="E295" s="7">
+        <v>45716.0</v>
+      </c>
+      <c r="F295" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="296" ht="15.75" customHeight="1">
+      <c r="A296" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C296" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D296" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E296" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F296" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="297" ht="15.75" customHeight="1">
+      <c r="A297" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B297" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C297" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D297" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E297" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F297" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="298" ht="15.75" customHeight="1">
+      <c r="A298" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B298" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C298" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D298" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="E298" s="7">
+        <v>45716.0</v>
+      </c>
+      <c r="F298" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="299" ht="15.75" customHeight="1">
+      <c r="A299" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B299" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C299" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D299" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="E299" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F299" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="300" ht="15.75" customHeight="1">
+      <c r="A300" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B300" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C300" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="D300" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E300" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F300" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="301" ht="15.75" customHeight="1">
+      <c r="A301" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B301" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C301" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="D301" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E301" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F301" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="302" ht="15.75" customHeight="1">
+      <c r="A302" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B302" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C302" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="D302" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="E302" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F302" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="303" ht="15.75" customHeight="1">
+      <c r="A303" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B303" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C303" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="D303" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E303" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F303" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="304" ht="15.75" customHeight="1">
+      <c r="A304" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C304" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="D304" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E304" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F304" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="305" ht="15.75" customHeight="1">
+      <c r="A305" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B305" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="C305" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="D305" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="E305" s="7">
+        <v>45716.0</v>
+      </c>
+      <c r="F305" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="306" ht="15.75" customHeight="1">
+      <c r="A306" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B306" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C306" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D306" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E306" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F306" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="307" ht="15.75" customHeight="1">
+      <c r="A307" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B307" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="C307" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="D307" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="E307" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F307" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="308" ht="15.75" customHeight="1">
+      <c r="A308" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B308" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="C308" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="D308" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="E308" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F308" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="309" ht="15.75" customHeight="1">
+      <c r="A309" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B309" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C309" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D309" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E309" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F309" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="310" ht="15.75" customHeight="1">
+      <c r="A310" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B310" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C310" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D310" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E310" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F310" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="311" ht="15.75" customHeight="1">
+      <c r="A311" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B311" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C311" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="D311" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E311" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F311" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="312" ht="15.75" customHeight="1">
+      <c r="A312" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B312" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C312" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D312" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E312" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F312" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="313" ht="15.75" customHeight="1">
+      <c r="A313" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="B313" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C313" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="D313" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="E313" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F313" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="314" ht="15.75" customHeight="1">
+      <c r="A314" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B314" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C314" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D314" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="E314" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F314" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="315" ht="15.75" customHeight="1">
+      <c r="A315" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B315" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C315" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D315" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="E315" s="7">
+        <v>45716.0</v>
+      </c>
+      <c r="F315" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="316" ht="15.75" customHeight="1">
+      <c r="A316" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B316" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C316" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D316" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E316" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F316" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="317" ht="15.75" customHeight="1">
+      <c r="A317" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B317" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C317" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D317" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E317" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F317" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="318" ht="15.75" customHeight="1">
+      <c r="A318" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B318" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C318" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D318" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E318" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F318" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="319" ht="15.75" customHeight="1">
+      <c r="A319" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B319" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C319" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D319" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E319" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F319" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="320" ht="15.75" customHeight="1">
+      <c r="A320" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B320" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C320" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D320" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E320" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F320" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="321" ht="15.75" customHeight="1">
+      <c r="A321" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B321" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C321" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D321" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E321" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F321" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="322" ht="15.75" customHeight="1">
+      <c r="A322" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B322" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C322" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="D322" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="E322" s="7">
+        <v>45716.0</v>
+      </c>
+      <c r="F322" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="323" ht="15.75" customHeight="1">
+      <c r="A323" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B323" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C323" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="D323" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="E323" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F323" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="324" ht="15.75" customHeight="1">
+      <c r="A324" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B324" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C324" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D324" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="E324" s="7">
+        <v>45716.0</v>
+      </c>
+      <c r="F324" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="325" ht="15.75" customHeight="1">
+      <c r="A325" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B325" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C325" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D325" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="E325" s="7">
+        <v>45716.0</v>
+      </c>
+      <c r="F325" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="326" ht="15.75" customHeight="1">
+      <c r="A326" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B326" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C326" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="D326" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E326" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F326" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="327" ht="15.75" customHeight="1">
+      <c r="A327" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="B327" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C327" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="D327" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="E327" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F327" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="328" ht="15.75" customHeight="1">
+      <c r="A328" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="B328" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C328" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="D328" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="E328" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F328" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="329" ht="15.75" customHeight="1">
+      <c r="A329" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B329" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C329" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="D329" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="E329" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F329" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="330" ht="15.75" customHeight="1">
+      <c r="A330" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B330" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="C330" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="D330" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="E330" s="7">
+        <v>45716.0</v>
+      </c>
+      <c r="F330" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="331" ht="15.75" customHeight="1">
+      <c r="A331" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B331" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C331" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D331" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E331" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F331" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="332" ht="15.75" customHeight="1">
+      <c r="A332" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B332" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C332" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D332" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="E332" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F332" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="333" ht="15.75" customHeight="1">
+      <c r="A333" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B333" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C333" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D333" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E333" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F333" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="334" ht="15.75" customHeight="1">
+      <c r="A334" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B334" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C334" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D334" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="E334" s="7">
+        <v>45716.0</v>
+      </c>
+      <c r="F334" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="335" ht="15.75" customHeight="1">
+      <c r="A335" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B335" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C335" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D335" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E335" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F335" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="336" ht="15.75" customHeight="1">
+      <c r="A336" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B336" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C336" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D336" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E336" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F336" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="337" ht="15.75" customHeight="1">
+      <c r="A337" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B337" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C337" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D337" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="E337" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F337" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="338" ht="15.75" customHeight="1">
+      <c r="A338" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B338" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C338" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D338" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E338" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F338" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="339" ht="15.75" customHeight="1">
+      <c r="A339" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="B339" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C339" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="D339" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="E339" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F339" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="340" ht="15.75" customHeight="1">
+      <c r="A340" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B340" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C340" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D340" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E340" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F340" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="341" ht="15.75" customHeight="1">
+      <c r="A341" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B341" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C341" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D341" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E341" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F341" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="342" ht="15.75" customHeight="1">
+      <c r="A342" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B342" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C342" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="D342" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E342" s="7">
+        <v>45715.0</v>
+      </c>
+      <c r="F342" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="343" ht="15.75" customHeight="1">
+      <c r="A343" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B343" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C343" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="D343" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="E343" s="7">
+        <v>45714.0</v>
+      </c>
+      <c r="F343" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
+    <row r="344" ht="15.75" customHeight="1">
+      <c r="A344" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B344" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C344" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D344" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="E344" s="7">
+        <v>45716.0</v>
+      </c>
+      <c r="F344" s="7">
+        <v>45716.02675925926</v>
+      </c>
+    </row>
     <row r="345" ht="15.75" customHeight="1"/>
     <row r="346" ht="15.75" customHeight="1"/>
     <row r="347" ht="15.75" customHeight="1"/>
@@ -4664,9 +9368,231 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C125"/>
+    <hyperlink r:id="rId2" ref="C126"/>
+    <hyperlink r:id="rId3" ref="C127"/>
+    <hyperlink r:id="rId4" ref="C128"/>
+    <hyperlink r:id="rId5" ref="C129"/>
+    <hyperlink r:id="rId6" ref="C130"/>
+    <hyperlink r:id="rId7" location="list/1" ref="C131"/>
+    <hyperlink r:id="rId8" location="list/1" ref="C132"/>
+    <hyperlink r:id="rId9" location="list/1" ref="C133"/>
+    <hyperlink r:id="rId10" location="list/1" ref="C134"/>
+    <hyperlink r:id="rId11" location="list/1" ref="C135"/>
+    <hyperlink r:id="rId12" ref="C136"/>
+    <hyperlink r:id="rId13" ref="C137"/>
+    <hyperlink r:id="rId14" location="page=2" ref="C138"/>
+    <hyperlink r:id="rId15" location="page=3" ref="C139"/>
+    <hyperlink r:id="rId16" ref="C140"/>
+    <hyperlink r:id="rId17" ref="C141"/>
+    <hyperlink r:id="rId18" ref="C142"/>
+    <hyperlink r:id="rId19" ref="C143"/>
+    <hyperlink r:id="rId20" ref="C144"/>
+    <hyperlink r:id="rId21" ref="C145"/>
+    <hyperlink r:id="rId22" ref="C146"/>
+    <hyperlink r:id="rId23" ref="C147"/>
+    <hyperlink r:id="rId24" ref="C148"/>
+    <hyperlink r:id="rId25" ref="C149"/>
+    <hyperlink r:id="rId26" ref="C150"/>
+    <hyperlink r:id="rId27" ref="C151"/>
+    <hyperlink r:id="rId28" ref="C152"/>
+    <hyperlink r:id="rId29" ref="C153"/>
+    <hyperlink r:id="rId30" ref="C154"/>
+    <hyperlink r:id="rId31" ref="C155"/>
+    <hyperlink r:id="rId32" ref="C156"/>
+    <hyperlink r:id="rId33" ref="C157"/>
+    <hyperlink r:id="rId34" ref="C158"/>
+    <hyperlink r:id="rId35" ref="C159"/>
+    <hyperlink r:id="rId36" ref="C160"/>
+    <hyperlink r:id="rId37" ref="C161"/>
+    <hyperlink r:id="rId38" ref="C162"/>
+    <hyperlink r:id="rId39" ref="C163"/>
+    <hyperlink r:id="rId40" ref="C164"/>
+    <hyperlink r:id="rId41" ref="C165"/>
+    <hyperlink r:id="rId42" ref="C166"/>
+    <hyperlink r:id="rId43" ref="C167"/>
+    <hyperlink r:id="rId44" ref="C168"/>
+    <hyperlink r:id="rId45" ref="C169"/>
+    <hyperlink r:id="rId46" ref="C170"/>
+    <hyperlink r:id="rId47" ref="C171"/>
+    <hyperlink r:id="rId48" ref="C172"/>
+    <hyperlink r:id="rId49" ref="C173"/>
+    <hyperlink r:id="rId50" ref="C174"/>
+    <hyperlink r:id="rId51" ref="C175"/>
+    <hyperlink r:id="rId52" ref="C176"/>
+    <hyperlink r:id="rId53" ref="C177"/>
+    <hyperlink r:id="rId54" ref="C178"/>
+    <hyperlink r:id="rId55" ref="C179"/>
+    <hyperlink r:id="rId56" ref="C180"/>
+    <hyperlink r:id="rId57" ref="C181"/>
+    <hyperlink r:id="rId58" ref="C182"/>
+    <hyperlink r:id="rId59" ref="C183"/>
+    <hyperlink r:id="rId60" ref="C184"/>
+    <hyperlink r:id="rId61" ref="C185"/>
+    <hyperlink r:id="rId62" ref="C186"/>
+    <hyperlink r:id="rId63" ref="C187"/>
+    <hyperlink r:id="rId64" ref="C188"/>
+    <hyperlink r:id="rId65" ref="C189"/>
+    <hyperlink r:id="rId66" ref="C190"/>
+    <hyperlink r:id="rId67" ref="C191"/>
+    <hyperlink r:id="rId68" ref="C192"/>
+    <hyperlink r:id="rId69" ref="C193"/>
+    <hyperlink r:id="rId70" ref="C194"/>
+    <hyperlink r:id="rId71" ref="C195"/>
+    <hyperlink r:id="rId72" ref="C196"/>
+    <hyperlink r:id="rId73" ref="C197"/>
+    <hyperlink r:id="rId74" ref="C198"/>
+    <hyperlink r:id="rId75" ref="C199"/>
+    <hyperlink r:id="rId76" ref="C200"/>
+    <hyperlink r:id="rId77" ref="C201"/>
+    <hyperlink r:id="rId78" ref="C202"/>
+    <hyperlink r:id="rId79" ref="C203"/>
+    <hyperlink r:id="rId80" ref="C204"/>
+    <hyperlink r:id="rId81" ref="C205"/>
+    <hyperlink r:id="rId82" ref="C206"/>
+    <hyperlink r:id="rId83" ref="C207"/>
+    <hyperlink r:id="rId84" ref="C208"/>
+    <hyperlink r:id="rId85" ref="C209"/>
+    <hyperlink r:id="rId86" ref="C210"/>
+    <hyperlink r:id="rId87" ref="C211"/>
+    <hyperlink r:id="rId88" ref="C212"/>
+    <hyperlink r:id="rId89" ref="C213"/>
+    <hyperlink r:id="rId90" ref="C214"/>
+    <hyperlink r:id="rId91" ref="C215"/>
+    <hyperlink r:id="rId92" ref="C216"/>
+    <hyperlink r:id="rId93" ref="C217"/>
+    <hyperlink r:id="rId94" ref="C218"/>
+    <hyperlink r:id="rId95" ref="C219"/>
+    <hyperlink r:id="rId96" ref="C220"/>
+    <hyperlink r:id="rId97" ref="C221"/>
+    <hyperlink r:id="rId98" ref="C222"/>
+    <hyperlink r:id="rId99" ref="C223"/>
+    <hyperlink r:id="rId100" ref="C224"/>
+    <hyperlink r:id="rId101" ref="C225"/>
+    <hyperlink r:id="rId102" ref="C226"/>
+    <hyperlink r:id="rId103" ref="C227"/>
+    <hyperlink r:id="rId104" ref="C228"/>
+    <hyperlink r:id="rId105" ref="C229"/>
+    <hyperlink r:id="rId106" ref="C230"/>
+    <hyperlink r:id="rId107" ref="C231"/>
+    <hyperlink r:id="rId108" ref="C232"/>
+    <hyperlink r:id="rId109" ref="C233"/>
+    <hyperlink r:id="rId110" ref="C234"/>
+    <hyperlink r:id="rId111" location="list/1" ref="C235"/>
+    <hyperlink r:id="rId112" location="list/1" ref="C236"/>
+    <hyperlink r:id="rId113" location="list/1" ref="C237"/>
+    <hyperlink r:id="rId114" location="list/1" ref="C238"/>
+    <hyperlink r:id="rId115" location="list/1" ref="C239"/>
+    <hyperlink r:id="rId116" location="list/1" ref="C240"/>
+    <hyperlink r:id="rId117" location="list/1" ref="C241"/>
+    <hyperlink r:id="rId118" ref="C242"/>
+    <hyperlink r:id="rId119" ref="C243"/>
+    <hyperlink r:id="rId120" ref="C244"/>
+    <hyperlink r:id="rId121" ref="C245"/>
+    <hyperlink r:id="rId122" ref="C246"/>
+    <hyperlink r:id="rId123" ref="C247"/>
+    <hyperlink r:id="rId124" ref="C248"/>
+    <hyperlink r:id="rId125" ref="C249"/>
+    <hyperlink r:id="rId126" ref="C250"/>
+    <hyperlink r:id="rId127" location="page=3" ref="C251"/>
+    <hyperlink r:id="rId128" ref="C252"/>
+    <hyperlink r:id="rId129" ref="C253"/>
+    <hyperlink r:id="rId130" ref="C254"/>
+    <hyperlink r:id="rId131" ref="C255"/>
+    <hyperlink r:id="rId132" ref="C256"/>
+    <hyperlink r:id="rId133" ref="C257"/>
+    <hyperlink r:id="rId134" ref="C258"/>
+    <hyperlink r:id="rId135" ref="C259"/>
+    <hyperlink r:id="rId136" ref="C260"/>
+    <hyperlink r:id="rId137" ref="C261"/>
+    <hyperlink r:id="rId138" ref="C262"/>
+    <hyperlink r:id="rId139" ref="C263"/>
+    <hyperlink r:id="rId140" ref="C264"/>
+    <hyperlink r:id="rId141" ref="C265"/>
+    <hyperlink r:id="rId142" ref="C266"/>
+    <hyperlink r:id="rId143" ref="C267"/>
+    <hyperlink r:id="rId144" ref="C268"/>
+    <hyperlink r:id="rId145" ref="C269"/>
+    <hyperlink r:id="rId146" ref="C270"/>
+    <hyperlink r:id="rId147" ref="C271"/>
+    <hyperlink r:id="rId148" ref="C272"/>
+    <hyperlink r:id="rId149" ref="C273"/>
+    <hyperlink r:id="rId150" ref="C274"/>
+    <hyperlink r:id="rId151" ref="C275"/>
+    <hyperlink r:id="rId152" ref="C276"/>
+    <hyperlink r:id="rId153" ref="C277"/>
+    <hyperlink r:id="rId154" ref="C278"/>
+    <hyperlink r:id="rId155" ref="C279"/>
+    <hyperlink r:id="rId156" ref="C280"/>
+    <hyperlink r:id="rId157" ref="C281"/>
+    <hyperlink r:id="rId158" ref="C282"/>
+    <hyperlink r:id="rId159" ref="C283"/>
+    <hyperlink r:id="rId160" ref="C284"/>
+    <hyperlink r:id="rId161" ref="C285"/>
+    <hyperlink r:id="rId162" ref="C286"/>
+    <hyperlink r:id="rId163" ref="C287"/>
+    <hyperlink r:id="rId164" ref="C288"/>
+    <hyperlink r:id="rId165" ref="C289"/>
+    <hyperlink r:id="rId166" ref="C290"/>
+    <hyperlink r:id="rId167" ref="C291"/>
+    <hyperlink r:id="rId168" ref="C292"/>
+    <hyperlink r:id="rId169" ref="C293"/>
+    <hyperlink r:id="rId170" ref="C294"/>
+    <hyperlink r:id="rId171" ref="C295"/>
+    <hyperlink r:id="rId172" ref="C296"/>
+    <hyperlink r:id="rId173" ref="C297"/>
+    <hyperlink r:id="rId174" ref="C298"/>
+    <hyperlink r:id="rId175" ref="C299"/>
+    <hyperlink r:id="rId176" ref="C300"/>
+    <hyperlink r:id="rId177" ref="C301"/>
+    <hyperlink r:id="rId178" ref="C302"/>
+    <hyperlink r:id="rId179" ref="C303"/>
+    <hyperlink r:id="rId180" ref="C304"/>
+    <hyperlink r:id="rId181" ref="C305"/>
+    <hyperlink r:id="rId182" ref="C306"/>
+    <hyperlink r:id="rId183" ref="C307"/>
+    <hyperlink r:id="rId184" ref="C308"/>
+    <hyperlink r:id="rId185" ref="C309"/>
+    <hyperlink r:id="rId186" ref="C310"/>
+    <hyperlink r:id="rId187" ref="C311"/>
+    <hyperlink r:id="rId188" ref="C312"/>
+    <hyperlink r:id="rId189" ref="C313"/>
+    <hyperlink r:id="rId190" ref="C314"/>
+    <hyperlink r:id="rId191" ref="C315"/>
+    <hyperlink r:id="rId192" ref="C316"/>
+    <hyperlink r:id="rId193" ref="C317"/>
+    <hyperlink r:id="rId194" ref="C318"/>
+    <hyperlink r:id="rId195" ref="C319"/>
+    <hyperlink r:id="rId196" ref="C320"/>
+    <hyperlink r:id="rId197" ref="C321"/>
+    <hyperlink r:id="rId198" ref="C322"/>
+    <hyperlink r:id="rId199" ref="C323"/>
+    <hyperlink r:id="rId200" ref="C324"/>
+    <hyperlink r:id="rId201" ref="C325"/>
+    <hyperlink r:id="rId202" ref="C326"/>
+    <hyperlink r:id="rId203" ref="C327"/>
+    <hyperlink r:id="rId204" ref="C328"/>
+    <hyperlink r:id="rId205" ref="C329"/>
+    <hyperlink r:id="rId206" ref="C330"/>
+    <hyperlink r:id="rId207" ref="C331"/>
+    <hyperlink r:id="rId208" ref="C332"/>
+    <hyperlink r:id="rId209" ref="C333"/>
+    <hyperlink r:id="rId210" ref="C334"/>
+    <hyperlink r:id="rId211" ref="C335"/>
+    <hyperlink r:id="rId212" ref="C336"/>
+    <hyperlink r:id="rId213" ref="C337"/>
+    <hyperlink r:id="rId214" ref="C338"/>
+    <hyperlink r:id="rId215" ref="C339"/>
+    <hyperlink r:id="rId216" ref="C340"/>
+    <hyperlink r:id="rId217" ref="C341"/>
+    <hyperlink r:id="rId218" ref="C342"/>
+    <hyperlink r:id="rId219" ref="C343"/>
+    <hyperlink r:id="rId220" ref="C344"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId221"/>
 </worksheet>
 </file>